--- a/Platform_API/base/files/reaction_times.xlsx
+++ b/Platform_API/base/files/reaction_times.xlsx
@@ -1,37 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>user0@example.com</t>
+  </si>
+  <si>
+    <t>user1@example.com</t>
+  </si>
+  <si>
+    <t>user2@example.com</t>
+  </si>
+  <si>
+    <t>user3@example.com</t>
+  </si>
+  <si>
+    <t>user4@example.com</t>
+  </si>
+  <si>
+    <t>user5@example.com</t>
+  </si>
+  <si>
+    <t>user6@example.com</t>
+  </si>
+  <si>
+    <t>user7@example.com</t>
+  </si>
+  <si>
+    <t>user8@example.com</t>
+  </si>
+  <si>
+    <t>user9@example.com</t>
+  </si>
+  <si>
+    <t>user10@example.com</t>
+  </si>
+  <si>
+    <t>user11@example.com</t>
+  </si>
+  <si>
+    <t>user12@example.com</t>
+  </si>
+  <si>
+    <t>user13@example.com</t>
+  </si>
+  <si>
+    <t>user14@example.com</t>
+  </si>
+  <si>
+    <t>user15@example.com</t>
+  </si>
+  <si>
+    <t>user16@example.com</t>
+  </si>
+  <si>
+    <t>user17@example.com</t>
+  </si>
+  <si>
+    <t>user18@example.com</t>
+  </si>
+  <si>
+    <t>user19@example.com</t>
+  </si>
+  <si>
+    <t>user20@example.com</t>
+  </si>
+  <si>
+    <t>user21@example.com</t>
+  </si>
+  <si>
+    <t>user22@example.com</t>
+  </si>
+  <si>
+    <t>user23@example.com</t>
+  </si>
+  <si>
+    <t>user24@example.com</t>
+  </si>
+  <si>
+    <t>user25@example.com</t>
+  </si>
+  <si>
+    <t>user26@example.com</t>
+  </si>
+  <si>
+    <t>user27@example.com</t>
+  </si>
+  <si>
+    <t>user28@example.com</t>
+  </si>
+  <si>
+    <t>user29@example.com</t>
+  </si>
+  <si>
+    <t>user30@example.com</t>
+  </si>
+  <si>
+    <t>user31@example.com</t>
+  </si>
+  <si>
+    <t>user32@example.com</t>
+  </si>
+  <si>
+    <t>user33@example.com</t>
+  </si>
+  <si>
+    <t>user34@example.com</t>
+  </si>
+  <si>
+    <t>user35@example.com</t>
+  </si>
+  <si>
+    <t>user36@example.com</t>
+  </si>
+  <si>
+    <t>user37@example.com</t>
+  </si>
+  <si>
+    <t>user38@example.com</t>
+  </si>
+  <si>
+    <t>user39@example.com</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +195,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,194 +511,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>acc</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>__v</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6499b378387d7978be652276</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>645</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>94</v>
+      </c>
+      <c r="B35">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6499b44d387d7978be652278</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>385</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6499b6dfb447a375f6b8b8ed</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>442</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6499b77fb447a375f6b8b8ef</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>407</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6499b8c5b447a375f6b8b8f2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>857</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6499b99eb447a375f6b8b8f4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>339</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6499ba05b447a375f6b8b8f6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>428</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>deleteuser@gmail.com</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="B41">
+        <v>219</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>